--- a/Componente_Individual/data/dataset.xlsx
+++ b/Componente_Individual/data/dataset.xlsx
@@ -124,10 +124,10 @@
     <t xml:space="preserve">15821: R da Boavista (Ambos (45-&gt;49)(86-&gt;90): Bqr dos Ferreiros - Tv Marquês de Sampaio)</t>
   </si>
   <si>
-    <t xml:space="preserve">15822: R da Boavista (Ambos (51-&gt;67)(96-&gt;118): Tv Marquês de Sampaio - Pto Galega (Rua da Boavista, 118))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15823: R da Boavista (Ambos (69-&gt;83)(120-&gt;176): Pto Galega (Rua da Boavista, 118) - R Instituto Industrial)</t>
+    <t xml:space="preserve">15822: R da Boavista (Ambos (51-&gt;67)(96-&gt;118): Tv Marquês de Sampaio - Pto Galega)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15823: R da Boavista (Ambos (69-&gt;83)(120-&gt;176): Pto Galega - R Instituto Industrial)</t>
   </si>
   <si>
     <t xml:space="preserve">15824: R da Boavista (Ambos (-&gt;93)(180-&gt;186): R Instituto Industrial - Lg Conde-Barão)</t>
@@ -571,16 +571,16 @@
   </sheetPr>
   <dimension ref="A1:J420"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A232" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E264" activeCellId="0" sqref="E264"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E83" activeCellId="0" sqref="E83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="106.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
